--- a/data/trans_camb/P16A07-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Clase-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A07-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0584254349667422</v>
+        <v>-0.02855562125660726</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7050395703446766</v>
+        <v>-0.6760603676514353</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.482377813396496</v>
+        <v>0.4150425902846681</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.202694168082328</v>
+        <v>-3.901253319377938</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.88765282385655</v>
+        <v>-2.944627148273729</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.306684414432028</v>
+        <v>-2.440367274829149</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.03243559404275</v>
+        <v>-1.073123238755878</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.9975458846019956</v>
+        <v>-1.089292791626211</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07171807410933845</v>
+        <v>-0.002185283942472954</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.872785561309632</v>
+        <v>3.50498799413988</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.893065753885528</v>
+        <v>1.903644018625573</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.633845024458332</v>
+        <v>3.609063346380049</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.687528797831046</v>
+        <v>2.050369492421264</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.130005467199061</v>
+        <v>3.411130896079079</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.248243847495742</v>
+        <v>2.925242513691461</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.051696288561037</v>
+        <v>2.302425671617981</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.895704037034204</v>
+        <v>2.052015509093502</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.832435202102136</v>
+        <v>2.994879745836797</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3438746787225719</v>
+        <v>-0.3049602753786933</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8245286149337413</v>
+        <v>-0.7713014018708991</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.07559827741171581</v>
+        <v>-0.07667315700575791</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7892996389001669</v>
+        <v>-0.7393097319473214</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5898454959846223</v>
+        <v>-0.5692338466295417</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3994810427288905</v>
+        <v>-0.4378451239694396</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4306029864372827</v>
+        <v>-0.4370025325695551</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3897017955269202</v>
+        <v>-0.4471669340327948</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.06546460887953728</v>
+        <v>-0.0794529309596924</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>11.94962906230622</v>
+        <v>13.43143779680782</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.609197049924697</v>
+        <v>7.949712288511318</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>13.44057298143177</v>
+        <v>13.30567347671304</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.8643982018669581</v>
+        <v>1.029899248885844</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.464672229940184</v>
+        <v>1.414929115283601</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.352872891950986</v>
+        <v>1.293086935445488</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.542588993953719</v>
+        <v>1.908320168131399</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.50272640070709</v>
+        <v>1.651182178781412</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.210763402193157</v>
+        <v>2.342514173383293</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.313062399360624</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.180786770503893</v>
+        <v>1.180786770503892</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-2.099261301385355</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8252073120564052</v>
+        <v>-0.6225427975143255</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.201475477482969</v>
+        <v>-2.155479498622786</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.7879378720953648</v>
+        <v>-0.7828454749862462</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.440075855597932</v>
+        <v>-5.41822894265989</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.426473369877522</v>
+        <v>-6.506387466678238</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.990143623373645</v>
+        <v>-3.401742854452927</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.509962672273501</v>
+        <v>-2.440319342265532</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.598454000116614</v>
+        <v>-3.666493149408032</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.690784483268573</v>
+        <v>-1.699614720895773</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.900756687256644</v>
+        <v>4.314866375373709</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.292161605382757</v>
+        <v>1.448119050995243</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.206433363732394</v>
+        <v>3.177021010730959</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.19971936726865</v>
+        <v>1.292209414951017</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1246696509398388</v>
+        <v>-0.1500518338065539</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.433235547285191</v>
+        <v>2.668278405501145</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.564544648071086</v>
+        <v>1.83676853639042</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01990112855071188</v>
+        <v>-0.04128322941345541</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.00545847352875</v>
+        <v>2.135918802353558</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1922368990062571</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.7250656342405567</v>
+        <v>0.7250656342405565</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.3324965482062634</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.475971749678616</v>
+        <v>-0.4158195138880534</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8320155082611904</v>
+        <v>-0.8063095550434072</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4355255754394237</v>
+        <v>-0.3794999581694596</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6755387493596803</v>
+        <v>-0.6705833228694699</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7797002137666731</v>
+        <v>-0.7822124892123624</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4649457534416587</v>
+        <v>-0.4125109963522112</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5235795021372582</v>
+        <v>-0.5013189247778276</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7186304092274944</v>
+        <v>-0.7326685200600898</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3484519387010486</v>
+        <v>-0.3305302316376992</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4.775764510168179</v>
+        <v>5.597228144896473</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.94610544921728</v>
+        <v>2.902692553628948</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.438721455072969</v>
+        <v>4.231662900370999</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2917207318381115</v>
+        <v>0.3717325670225718</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06142062618632733</v>
+        <v>0.04963453087447856</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5503952288171916</v>
+        <v>0.5969957566221841</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5027553471501947</v>
+        <v>0.6375457358767254</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.05094946501349548</v>
+        <v>0.05027816744836731</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6840515407572019</v>
+        <v>0.7594664803370195</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.3426031085827407</v>
+        <v>-0.3945489151038321</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.418321404751443</v>
+        <v>-1.659736803924378</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.1743737863023945</v>
+        <v>-0.328851795908172</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.937283901042518</v>
+        <v>-2.955565564573294</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.930190403442948</v>
+        <v>-2.659737643290908</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.382586641074212</v>
+        <v>-3.969942749328301</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.05886768011346843</v>
+        <v>0.005580783304953446</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.263468745988507</v>
+        <v>-0.9960833224212363</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.04778629865601508</v>
+        <v>-0.1633677439775252</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.127175960911713</v>
+        <v>3.930651568092591</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.592180176163112</v>
+        <v>2.358352025972465</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.684403741626421</v>
+        <v>4.788201636789849</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.952931792906467</v>
+        <v>7.74427268255784</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.3543737986605</v>
+        <v>10.60333475773855</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.84860734372161</v>
+        <v>6.133632486418787</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.446808711061346</v>
+        <v>4.427818483808799</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.385744031491409</v>
+        <v>3.409037553470246</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.095010127238677</v>
+        <v>4.276884176544775</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1522223108437872</v>
+        <v>-0.1521292891093975</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4217763795862254</v>
+        <v>-0.4688321160243215</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1272247349017497</v>
+        <v>-0.157023589377149</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2633555511601942</v>
+        <v>-0.3420341037011618</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3451264418852117</v>
+        <v>-0.3158778586578846</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4088375733782834</v>
+        <v>-0.3860269570299408</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.02109816183906065</v>
+        <v>-0.02167528424515333</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2727999144977631</v>
+        <v>-0.2333705554171334</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.0313627487004331</v>
+        <v>-0.04111932493938274</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.455605451295225</v>
+        <v>2.245355772883529</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.630883615755922</v>
+        <v>1.385840222156433</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.671335932777334</v>
+        <v>2.74611576332853</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.857715988597581</v>
+        <v>1.6860048220035</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.13908934767897</v>
+        <v>2.150375219494414</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.279093368923525</v>
+        <v>1.365614071754692</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.61505131305871</v>
+        <v>1.687847600976446</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.291199560438302</v>
+        <v>1.236182071720122</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.442754717412673</v>
+        <v>1.672559591244322</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-0.9874806238819485</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.771268054586479</v>
+        <v>1.771268054586477</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.698314969693144</v>
@@ -1306,7 +1306,7 @@
         <v>0.09261615681926405</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.030069574078559</v>
+        <v>2.030069574078561</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2240843753956906</v>
+        <v>0.3184317643354949</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.6399626327085844</v>
+        <v>-0.5751249890933412</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4972778878380169</v>
+        <v>0.4632700060807314</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.55108913234614</v>
+        <v>-1.438868718812933</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.54843569923831</v>
+        <v>-3.493618933442113</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.5670302344276003</v>
+        <v>-0.5012278555809355</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3107878054919501</v>
+        <v>0.2834960565294886</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.116503873919368</v>
+        <v>-1.09977638433428</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7817441397449092</v>
+        <v>0.8371455438941789</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.933638636336581</v>
+        <v>3.13020430722485</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.716330060648579</v>
+        <v>1.773256293477777</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.091263829037918</v>
+        <v>3.047050688534507</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.872332674345216</v>
+        <v>3.821510432938603</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.451613687890356</v>
+        <v>1.441727282191968</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.04535541812028</v>
+        <v>4.022467573745008</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.009848170565441</v>
+        <v>3.115821886174123</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.250870169907157</v>
+        <v>1.317610589388817</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.340097675411411</v>
+        <v>3.342169489796356</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.158217839361882</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2837991933712106</v>
+        <v>0.2837991933712103</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.4763736922312691</v>
@@ -1411,7 +1411,7 @@
         <v>0.02597863256910157</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.5694301444359855</v>
+        <v>0.5694301444359858</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.07719383403255295</v>
+        <v>0.07460649510796682</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2711915760745385</v>
+        <v>-0.2601954285295283</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1932769130793934</v>
+        <v>0.1647663149853996</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2088079756213293</v>
+        <v>-0.1812761629182073</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4503652294505618</v>
+        <v>-0.4552590409190349</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.07509555280658128</v>
+        <v>-0.07521146960438754</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06630970736256839</v>
+        <v>0.06924229600911916</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2805104650979435</v>
+        <v>-0.2634161266210817</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1776584637335391</v>
+        <v>0.194129757878177</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.954175292512019</v>
+        <v>2.033862098153699</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.148461731901205</v>
+        <v>1.140121970017357</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.14191717941322</v>
+        <v>2.002828229044641</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7508012736966265</v>
+        <v>0.760112646271327</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3074712999039707</v>
+        <v>0.2813581375821688</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8183766822417875</v>
+        <v>0.8022282150883746</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.013325798116486</v>
+        <v>1.028959898258614</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4284213918874011</v>
+        <v>0.4461447287056442</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.11333707756205</v>
+        <v>1.135644988086378</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>3.100811018853352</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.034681157123307</v>
+        <v>2.034681157123308</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.077180323030768</v>
@@ -1520,7 +1520,7 @@
         <v>0.9665564290868636</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.17726991585059</v>
+        <v>1.177269915850589</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.439437448760113</v>
+        <v>-3.555711398226326</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.28663931811403</v>
+        <v>-3.33384497220149</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.560235392451393</v>
+        <v>-2.383216137027512</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.9612290067784122</v>
+        <v>1.003641253709376</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.491986736769525</v>
+        <v>-0.3614947235802844</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.7552286684407297</v>
+        <v>-0.9715080586376622</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.3233181516257018</v>
+        <v>-0.1665663259919266</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.147615922516881</v>
+        <v>-1.000238474777685</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.906606798074834</v>
+        <v>-0.8004778586753537</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.510341162101795</v>
+        <v>1.254294734614362</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.35211914692948</v>
+        <v>1.415999609628579</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.519371827521268</v>
+        <v>2.48508415459535</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.463084496804734</v>
+        <v>7.715305960608483</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.356742548239307</v>
+        <v>6.382870209414689</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.604404369273912</v>
+        <v>4.852531471554216</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.40556538249477</v>
+        <v>4.376699522054821</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.166092170386102</v>
+        <v>3.441142004431366</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.202654429342528</v>
+        <v>3.294688190301251</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.3827104409881403</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2511258242370648</v>
+        <v>0.2511258242370649</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.3266035085242702</v>
@@ -1625,7 +1625,7 @@
         <v>0.1519755976052463</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.1851069359427875</v>
+        <v>0.1851069359427873</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6600392989679902</v>
+        <v>-0.6998730222351618</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6391546094607754</v>
+        <v>-0.655783412569326</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5101234300526033</v>
+        <v>-0.49587788514919</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.09370466186235811</v>
+        <v>0.09002968226210827</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.05733525493479823</v>
+        <v>-0.04167626406795007</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.0791253323909852</v>
+        <v>-0.1019585068171763</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.04923583359299148</v>
+        <v>-0.01698443386569558</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1503741586336109</v>
+        <v>-0.1353855634934792</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1176559190839294</v>
+        <v>-0.09906208009898475</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8875475275201274</v>
+        <v>0.6360192668935729</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.718767330892446</v>
+        <v>0.6952001388031631</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.221506878300029</v>
+        <v>1.216689021334629</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.147574021401369</v>
+        <v>1.113416506721906</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.9540223148070919</v>
+        <v>0.9654531601372323</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7554018057899521</v>
+        <v>0.7352448423748673</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8349924078801405</v>
+        <v>0.8663639589032656</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6320536063893384</v>
+        <v>0.6723722987431204</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.6319438976178898</v>
+        <v>0.6685631934844325</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>1.254949583146063</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.196641950809417</v>
+        <v>1.196641950809416</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>1.277539611174278</v>
@@ -1734,7 +1734,7 @@
         <v>0.5027286402113772</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.7428094101895273</v>
+        <v>0.7428094101895245</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.660125734115061</v>
+        <v>-5.520641180377388</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.873623931898694</v>
+        <v>-4.756389947859406</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.450166675661845</v>
+        <v>-3.374630474216663</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.04694087908166181</v>
+        <v>0.01884559879955644</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.8812032598555887</v>
+        <v>-0.8966397061435909</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.017985434771372</v>
+        <v>-0.7604060352884765</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.453094453050068</v>
+        <v>-0.60916804780876</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.346889514927302</v>
+        <v>-1.193114648685374</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.039676689613983</v>
+        <v>-1.183021451034977</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-1.096652785325898</v>
+        <v>-0.9339686097968098</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.07758500318631657</v>
+        <v>0.03610534004603725</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.222511994697324</v>
+        <v>3.227869153512056</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.514403694853664</v>
+        <v>4.478163168848303</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.558683543067432</v>
+        <v>3.488162426908074</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.30016226326492</v>
+        <v>3.648982465564093</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.173325296929645</v>
+        <v>3.132113365560441</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.334893736211403</v>
+        <v>2.230284613635653</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.608936996462248</v>
+        <v>2.44175615197026</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.1955057150269451</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1864221028208463</v>
+        <v>0.1864221028208461</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2205349522192662</v>
@@ -1839,7 +1839,7 @@
         <v>0.08678340434889908</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.1282272865368097</v>
+        <v>0.1282272865368093</v>
       </c>
     </row>
     <row r="38">
@@ -1853,28 +1853,28 @@
         <v>-1</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9371683992689632</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7815925369158144</v>
+        <v>-0.7631781236351822</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.00539186690619047</v>
+        <v>0.00168890718254296</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1298041327454219</v>
+        <v>-0.1234315829456248</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.144095231169912</v>
+        <v>-0.1041855127105053</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.07002738946964768</v>
+        <v>-0.09363435754713498</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2036595432230519</v>
+        <v>-0.1883975420149688</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1583741236606048</v>
+        <v>-0.1685213383377084</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1067028645072874</v>
+        <v>-0.07040453816337847</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.4266718154718161</v>
+        <v>0.3126667981937216</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.014135739581721</v>
+        <v>1.956791216696834</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.80779721942893</v>
+        <v>0.780561890613694</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.6607416342853717</v>
+        <v>0.6574027086163284</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.6092438352669126</v>
+        <v>0.6586733803198305</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6400411453581406</v>
+        <v>0.6443443832951263</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4720733042690506</v>
+        <v>0.4537458369124368</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.5105056656802955</v>
+        <v>0.4884435738519001</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>0.3745281474480188</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>1.308125258612379</v>
+        <v>1.30812525861238</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.1982469113492586</v>
+        <v>0.09120465724321339</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.6213766519408839</v>
+        <v>-0.6189273590268725</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.5641580845156468</v>
+        <v>0.4996865991936462</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.6667693830949349</v>
+        <v>0.5894267572037484</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.5185855054295727</v>
+        <v>-0.6503757369312347</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.06749582437337641</v>
+        <v>0.1210786514119156</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.6942240926661535</v>
+        <v>0.7552719278038968</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.3062312948599902</v>
+        <v>-0.3396770651891264</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.5950396499521337</v>
+        <v>0.6493229836840468</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.794949767775519</v>
+        <v>1.721340826791112</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.7222079230425713</v>
+        <v>0.7799470405764241</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.136626256728187</v>
+        <v>2.135840800416328</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.237642086148625</v>
+        <v>3.211563111670094</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.894582946096926</v>
+        <v>1.873585595177268</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.305287654357937</v>
+        <v>2.308887308532071</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.219071069449346</v>
+        <v>2.240992618741161</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.099755210976653</v>
+        <v>1.069976912557429</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.990267534946585</v>
+        <v>2.047422035845134</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.08636027843859274</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.3016330343555833</v>
+        <v>0.3016330343555835</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.08164189392884623</v>
+        <v>0.01859625332267481</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2459758371903988</v>
+        <v>-0.2474794388315126</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.2375750416419132</v>
+        <v>0.1870938137390433</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.09140772025005199</v>
+        <v>0.08268937410617785</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.07622617126213674</v>
+        <v>-0.09107565464769338</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.007941830993690672</v>
+        <v>0.009619239587968322</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1478364652616126</v>
+        <v>0.1564808099901682</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.06153507995779939</v>
+        <v>-0.07562855945295389</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1244050326069943</v>
+        <v>0.1345946979936812</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.9972782260756955</v>
+        <v>0.9303779076408734</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.4124200483507625</v>
+        <v>0.431897934642451</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.188586488511933</v>
+        <v>1.147960893847564</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5533851817604601</v>
+        <v>0.5464985082457503</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.3160483473258706</v>
+        <v>0.3165241888978437</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.391802538616451</v>
+        <v>0.3883263735948848</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5531039698505329</v>
+        <v>0.5682580891017662</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2776603650587982</v>
+        <v>0.2645056138994312</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.5089163389952446</v>
+        <v>0.5155122456596485</v>
       </c>
     </row>
     <row r="46">
